--- a/IA_Statewide_BLE/Hydraulics/CID_DFIRM_relationships.xlsx
+++ b/IA_Statewide_BLE/Hydraulics/CID_DFIRM_relationships.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,118 +460,202 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>CD20IA</t>
+          <t>BPMH22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>190086</t>
+          <t>190091</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>CY20IA</t>
+          <t>BY22IA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>190005</t>
+          <t>190849</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>GLM2IA</t>
+          <t>CD20IA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>190072</t>
+          <t>190086</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>LC20IA</t>
+          <t>CY20IA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>190050</t>
+          <t>190005</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>LW20IA</t>
+          <t>FL22IA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>190045</t>
+          <t>190854</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MK20IA</t>
+          <t>GLM2IA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>190331</t>
+          <t>190072</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>TK20IA</t>
+          <t>LC20IA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>190005</t>
+          <t>190050</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>UC20IA</t>
+          <t>LS22IA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>190023</t>
+          <t>190032</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>UI20IA</t>
+          <t>LW20IA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>190005</t>
+          <t>190045</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
+          <t>MH22IA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>190545</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>MHDH22</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>190614</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>MK20IA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>190331</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RK22IA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>190197</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>TK20IA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>190005</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>UC20IA</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>190023</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>UI20IA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>190005</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
           <t>UW20IA</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>190018</t>
         </is>
